--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H2">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I2">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J2">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N2">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q2">
-        <v>27.47432465648034</v>
+        <v>76.76093370911387</v>
       </c>
       <c r="R2">
-        <v>247.268921908323</v>
+        <v>690.8484033820249</v>
       </c>
       <c r="S2">
-        <v>0.02511813403045235</v>
+        <v>0.1135130834818332</v>
       </c>
       <c r="T2">
-        <v>0.02511813403045234</v>
+        <v>0.1135130834818332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H3">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I3">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J3">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q3">
-        <v>11.20597164057078</v>
+        <v>30.24134826372256</v>
       </c>
       <c r="R3">
-        <v>100.853744765137</v>
+        <v>272.172134373503</v>
       </c>
       <c r="S3">
-        <v>0.01024495055396799</v>
+        <v>0.04472051764080551</v>
       </c>
       <c r="T3">
-        <v>0.01024495055396799</v>
+        <v>0.04472051764080551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H4">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I4">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J4">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N4">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q4">
-        <v>11.60887231358322</v>
+        <v>35.15853382868322</v>
       </c>
       <c r="R4">
-        <v>104.479850822249</v>
+        <v>316.426804458149</v>
       </c>
       <c r="S4">
-        <v>0.01061329857460984</v>
+        <v>0.05199198853830937</v>
       </c>
       <c r="T4">
-        <v>0.01061329857460984</v>
+        <v>0.05199198853830938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H5">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I5">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J5">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N5">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q5">
-        <v>2.485343760082556</v>
+        <v>9.253695660772111</v>
       </c>
       <c r="R5">
-        <v>22.368093840743</v>
+        <v>83.283260946949</v>
       </c>
       <c r="S5">
-        <v>0.002272201353738367</v>
+        <v>0.01368424636465809</v>
       </c>
       <c r="T5">
-        <v>0.002272201353738367</v>
+        <v>0.01368424636465809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H6">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I6">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J6">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N6">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q6">
-        <v>6.572046248978</v>
+        <v>16.75415039515311</v>
       </c>
       <c r="R6">
-        <v>59.14841624080201</v>
+        <v>150.787353556378</v>
       </c>
       <c r="S6">
-        <v>0.006008429346314226</v>
+        <v>0.02477582255160087</v>
       </c>
       <c r="T6">
-        <v>0.006008429346314226</v>
+        <v>0.02477582255160088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H7">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I7">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J7">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N7">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q7">
-        <v>8.542885644080666</v>
+        <v>86.76214383033165</v>
       </c>
       <c r="R7">
-        <v>76.885970796726</v>
+        <v>780.859294472985</v>
       </c>
       <c r="S7">
-        <v>0.007810250089777268</v>
+        <v>0.1283027446356599</v>
       </c>
       <c r="T7">
-        <v>0.007810250089777268</v>
+        <v>0.1283027446356599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N8">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q8">
-        <v>73.91010995408134</v>
+        <v>76.51832254087778</v>
       </c>
       <c r="R8">
-        <v>665.190989586732</v>
+        <v>688.6649028679</v>
       </c>
       <c r="S8">
-        <v>0.0675715989835695</v>
+        <v>0.1131543132003516</v>
       </c>
       <c r="T8">
-        <v>0.06757159898356949</v>
+        <v>0.1131543132003516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q9">
         <v>30.14576723732311</v>
@@ -1013,10 +1013,10 @@
         <v>271.311905135908</v>
       </c>
       <c r="S9">
-        <v>0.02756047442058962</v>
+        <v>0.04457917364582397</v>
       </c>
       <c r="T9">
-        <v>0.02756047442058962</v>
+        <v>0.04457917364582397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N10">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q10">
-        <v>31.22963129641289</v>
+        <v>35.04741150964044</v>
       </c>
       <c r="R10">
-        <v>281.066681667716</v>
+        <v>315.426703586764</v>
       </c>
       <c r="S10">
-        <v>0.02855138659213177</v>
+        <v>0.05182766227925163</v>
       </c>
       <c r="T10">
-        <v>0.02855138659213177</v>
+        <v>0.05182766227925165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N11">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q11">
-        <v>6.685952534890222</v>
+        <v>9.224448362618224</v>
       </c>
       <c r="R11">
-        <v>60.173572814012</v>
+        <v>83.020035263564</v>
       </c>
       <c r="S11">
-        <v>0.0061125670600607</v>
+        <v>0.01364099583556029</v>
       </c>
       <c r="T11">
-        <v>0.0061125670600607</v>
+        <v>0.01364099583556029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J12">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N12">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q12">
-        <v>17.679803487752</v>
+        <v>16.70119710493422</v>
       </c>
       <c r="R12">
-        <v>159.118231389768</v>
+        <v>150.310773944408</v>
       </c>
       <c r="S12">
-        <v>0.01616358833892822</v>
+        <v>0.02469751590572248</v>
       </c>
       <c r="T12">
-        <v>0.01616358833892822</v>
+        <v>0.02469751590572249</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J13">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N13">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q13">
-        <v>22.98166106624267</v>
+        <v>86.48792276427334</v>
       </c>
       <c r="R13">
-        <v>206.834949596184</v>
+        <v>778.39130487846</v>
       </c>
       <c r="S13">
-        <v>0.02101076005040782</v>
+        <v>0.1278972300430168</v>
       </c>
       <c r="T13">
-        <v>0.02101076005040782</v>
+        <v>0.1278972300430168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H14">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N14">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q14">
-        <v>341.2695976199817</v>
+        <v>50.33691086528889</v>
       </c>
       <c r="R14">
-        <v>3071.426378579835</v>
+        <v>453.0321977876</v>
       </c>
       <c r="S14">
-        <v>0.3120024095484131</v>
+        <v>0.07443757767358578</v>
       </c>
       <c r="T14">
-        <v>0.312002409548413</v>
+        <v>0.07443757767358579</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H15">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q15">
-        <v>139.1938648368739</v>
+        <v>19.83112995688356</v>
       </c>
       <c r="R15">
-        <v>1252.744783531865</v>
+        <v>178.480169611952</v>
       </c>
       <c r="S15">
-        <v>0.1272566367655774</v>
+        <v>0.02932602043202521</v>
       </c>
       <c r="T15">
-        <v>0.1272566367655774</v>
+        <v>0.02932602043202521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H16">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N16">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q16">
-        <v>144.1984555694561</v>
+        <v>23.05563387484622</v>
       </c>
       <c r="R16">
-        <v>1297.786100125105</v>
+        <v>207.500704873616</v>
       </c>
       <c r="S16">
-        <v>0.1318320351551757</v>
+        <v>0.03409437543685413</v>
       </c>
       <c r="T16">
-        <v>0.1318320351551757</v>
+        <v>0.03409437543685413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H17">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I17">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J17">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N17">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q17">
-        <v>30.87145091119278</v>
+        <v>6.068222872535112</v>
       </c>
       <c r="R17">
-        <v>277.843058200735</v>
+        <v>54.61400585281601</v>
       </c>
       <c r="S17">
-        <v>0.02822392365953824</v>
+        <v>0.008973610093472108</v>
       </c>
       <c r="T17">
-        <v>0.02822392365953824</v>
+        <v>0.00897361009347211</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H18">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I18">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J18">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N18">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q18">
-        <v>81.63402037981</v>
+        <v>10.98673679843911</v>
       </c>
       <c r="R18">
-        <v>734.70618341829</v>
+        <v>98.88063118595201</v>
       </c>
       <c r="S18">
-        <v>0.07463310894745134</v>
+        <v>0.01624704535408841</v>
       </c>
       <c r="T18">
-        <v>0.07463310894745134</v>
+        <v>0.01624704535408842</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H19">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I19">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J19">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N19">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q19">
-        <v>106.1146063723633</v>
+        <v>56.89532538802667</v>
       </c>
       <c r="R19">
-        <v>955.03145735127</v>
+        <v>512.0579284922401</v>
       </c>
       <c r="S19">
-        <v>0.09701424652929655</v>
+        <v>0.08413607688738065</v>
       </c>
       <c r="T19">
-        <v>0.09701424652929655</v>
+        <v>0.08413607688738066</v>
       </c>
     </row>
   </sheetData>
